--- a/biology/Médecine/Georges_Lanteri-Laura/Georges_Lanteri-Laura.xlsx
+++ b/biology/Médecine/Georges_Lanteri-Laura/Georges_Lanteri-Laura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Lantéri-Laura (10 juillet 1930 - 3 août 2004[1]) est un psychiatre français. 
-Il fut une des figures marquantes de la revue Évolution psychiatrique et de l'épistémologie psychiatrique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Lantéri-Laura (10 juillet 1930 - 3 août 2004) est un psychiatre français. 
+Il fut une des figures marquantes de la revue Évolution psychiatrique et de l'épistémologie psychiatrique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Études de philosophie et de médecine à Aix-en-Provence puis à Paris. 
 Chef de service à l'hôpital Esquirol et directeur d'études à l'École des hautes études en sciences sociales.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Historique de la notion de mémoire dans la clinique psychiatrique et dans ses modèles psychopathologiques », in Cliniques méditerranéennes, 67, 2003
 « La chronicité en psychiatrie », Ed: Les empêcheurs de penser en rond / Synthélabo, 1997,  (ISBN 2-84324-007-7)
